--- a/Workspace/GN100-selenium/src/DataProvider/Test-data.xlsx
+++ b/Workspace/GN100-selenium/src/DataProvider/Test-data.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -404,7 +404,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>18500643574</v>
+        <v>18810000001</v>
       </c>
       <c r="B2" s="1">
         <v>111111</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>18500643574</v>
+        <v>18810000002</v>
       </c>
       <c r="B3" s="1">
         <v>123456</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>13645420000</v>
+        <v>18810000005</v>
       </c>
       <c r="B4" s="1">
         <v>111111</v>
